--- a/en/downloads/data-excel/7.b.1.1a.xlsx
+++ b/en/downloads/data-excel/7.b.1.1a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -153,7 +153,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -202,6 +202,9 @@
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -514,7 +517,9 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:Q1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -580,6 +585,9 @@
       </c>
       <c r="P3" s="2">
         <v>2019</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2020</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -631,6 +639,9 @@
       <c r="P4" s="7">
         <v>2.6566536545423566E-2</v>
       </c>
+      <c r="Q4" s="17">
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>

--- a/en/downloads/data-excel/7.b.1.1a.xlsx
+++ b/en/downloads/data-excel/7.b.1.1a.xlsx
@@ -515,10 +515,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист4"/>
-  <dimension ref="A1:Q1021"/>
+  <dimension ref="A1:R1021"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -528,7 +528,7 @@
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -539,11 +539,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -589,8 +589,11 @@
       <c r="Q3" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -642,70 +645,73 @@
       <c r="Q4" s="17">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="Q9" s="13"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="O13" s="15"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
